--- a/ClientExcel/GameHotfix/$Localization.xlsx
+++ b/ClientExcel/GameHotfix/$Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11655"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>本地化配置表</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>Setting.OK</t>
+  </si>
+  <si>
+    <t>Hero.Host.Name</t>
+  </si>
+  <si>
+    <t>宿主角色名称</t>
+  </si>
+  <si>
+    <t>宿主</t>
+  </si>
+  <si>
+    <t>Host</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +261,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -714,137 +732,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +874,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.25" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1548,6 +1569,20 @@
       </c>
       <c r="E24" s="3"/>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
